--- a/log_history/Y4_B2526_Immunology_Haematolo_scanner1765192461531_dff6c0616f7c40de28f5913d4a79d8f519403359c7bf7a332439044d4e40ec83.xlsx
+++ b/log_history/Y4_B2526_Immunology_Haematolo_scanner1765192461531_dff6c0616f7c40de28f5913d4a79d8f519403359c7bf7a332439044d4e40ec83.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Immunology_Haematolo_scanner1765192461531_dff6c0616f7c40de28f5913d4a79d8f519403359c7bf7a332439044d4e40ec83.xlsx
+++ b/log_history/Y4_B2526_Immunology_Haematolo_scanner1765192461531_dff6c0616f7c40de28f5913d4a79d8f519403359c7bf7a332439044d4e40ec83.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Immunology_Haematology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
